--- a/PyAsset/Config.xlsx
+++ b/PyAsset/Config.xlsx
@@ -1,77 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PyAsset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B6D7A-F43D-4DB4-80FE-92227ACB495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1980" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3910" yWindow="2360" windowWidth="14400" windowHeight="7270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PDF\</t>
-  </si>
-  <si>
-    <t>Descrition</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Ruta Base para descargar los archivos pdf.</t>
-  </si>
-  <si>
-    <t>ejemplo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,23 +63,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,52 +406,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="63.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col width="17.453125" customWidth="1" min="1" max="1"/>
+    <col width="63.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="36.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Descrition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PDF\</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ruta Base para descargar los archivos pdf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Gerente</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Franklin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gerente del formato de solicitudes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RutTesoreria</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>60.805.000-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Dirección</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Teatinos 28, Santiago</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CuentaContable</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Contribuciones</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Consulta </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="B10" s="3" t="n"/>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Teatinos 28, Santiago</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Pago de sobretasa cuota 6-2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Pago de sobretasa cuota 6-2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1-80-806</t>
+        </is>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1-80-806</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/PyAsset/Config.xlsx
+++ b/PyAsset/Config.xlsx
@@ -1,57 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PyAsset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B3FB03-FE7F-4891-8B3C-7EE1354A6A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3910" yWindow="2360" windowWidth="14400" windowHeight="7270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Descrition</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PDF\</t>
+  </si>
+  <si>
+    <t>Ruta Base para descargar los archivos pdf.</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Gerente del formato de solicitudes</t>
+  </si>
+  <si>
+    <t>RutTesoreria</t>
+  </si>
+  <si>
+    <t>60.805.000-0</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teatinos 28, Santiago</t>
+  </si>
+  <si>
+    <t>CuentaContable</t>
+  </si>
+  <si>
+    <t>Contribuciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta </t>
+  </si>
+  <si>
+    <t>Pago de sobretasa cuota 6-2018</t>
+  </si>
+  <si>
+    <t>1-80-806</t>
+  </si>
+  <si>
+    <t>Enrique Carrasco</t>
+  </si>
+  <si>
+    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data</t>
+  </si>
+  <si>
+    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\Resumen_Contribuciones_Terreno_2023.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruta </t>
+  </si>
+  <si>
+    <t>LIBRO</t>
+  </si>
+  <si>
+    <t>para el funcionamiento de la macro</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,88 +139,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,175 +443,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="17.453125" customWidth="1" min="1" max="1"/>
-    <col width="63.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="36.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Descrition</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>base</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PDF\</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ruta Base para descargar los archivos pdf.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Gerente</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Franklin</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gerente del formato de solicitudes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RutTesoreria</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>60.805.000-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Dirección</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Teatinos 28, Santiago</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>CuentaContable</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Contribuciones</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Consulta </t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10">
-      <c r="B10" s="3" t="n"/>
-    </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Teatinos 28, Santiago</t>
-        </is>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Pago de sobretasa cuota 6-2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Pago de sobretasa cuota 6-2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1-80-806</t>
-        </is>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1-80-806</t>
-        </is>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PyAsset/Config.xlsx
+++ b/PyAsset/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PyAsset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr_Unidades_vendidas\PyAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B3FB03-FE7F-4891-8B3C-7EE1354A6A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62C12E-78C8-4472-BBF1-22F3CF7D0E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28368" yWindow="2892" windowWidth="14400" windowHeight="7272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>base</t>
   </si>
   <si>
-    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PDF\</t>
-  </si>
-  <si>
     <t>Ruta Base para descargar los archivos pdf.</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>para el funcionamiento de la macro</t>
+  </si>
+  <si>
+    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr_Unidades_vendidas\PDF\</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,54 +473,54 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>2023</v>
@@ -529,24 +529,24 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -554,27 +554,27 @@
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PyAsset/Config.xlsx
+++ b/PyAsset/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr_Unidades_vendidas\PyAsset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PyAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62C12E-78C8-4472-BBF1-22F3CF7D0E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7527A7-18FE-4731-8860-83270B042384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28368" yWindow="2892" windowWidth="14400" windowHeight="7272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>para el funcionamiento de la macro</t>
   </si>
   <si>
-    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr_Unidades_vendidas\PDF\</t>
+    <t>C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\PDF\</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
